--- a/inst/extdata/seqNdisplayR_sample_sheet_simple2.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_simple2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984E8B7D-C7CA-AE4E-AB64-D327ECD5C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{984E8B7D-C7CA-AE4E-AB64-D327ECD5C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4892B65-E313-8644-A481-401D9145D736}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
   <si>
     <t>bw_dirs</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>replicate (not used by seqNdisplayR at the moment)</t>
+  </si>
+  <si>
+    <t>group_autoscale</t>
   </si>
 </sst>
 </file>
@@ -1617,16 +1620,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C8C505-D57F-9C4B-B17A-20D6567392D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
@@ -1660,8 +1666,11 @@
       <c r="K1" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1695,8 +1704,11 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1730,8 +1742,11 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1765,8 +1780,11 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1799,6 +1817,9 @@
       </c>
       <c r="K5" t="b">
         <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1809,10 +1830,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1847,7 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>190</v>
       </c>
@@ -1848,8 +1869,11 @@
       <c r="G1" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1871,8 +1895,11 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
   </sheetData>
@@ -1886,7 +1913,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1928,170 +1955,170 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4">
-        <v>250</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="B14" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="11" t="b">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>146</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="4" t="b">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="4" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>65</v>
@@ -2099,7 +2126,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>65</v>
@@ -2107,82 +2134,82 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>61</v>
+      <c r="A28" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>183</v>
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="4" t="b">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B35" s="4" t="b">
         <v>1</v>
@@ -2190,7 +2217,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B36" s="4" t="b">
         <v>1</v>
@@ -2198,7 +2225,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4" t="b">
         <v>1</v>
@@ -2206,31 +2233,31 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="4" t="b">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>157</v>
+      </c>
+      <c r="B39" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B41" s="4" t="b">
         <v>0</v>
@@ -2238,64 +2265,64 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="4" t="b">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>74</v>
+        <v>162</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>164</v>
+      </c>
+      <c r="B47" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="4" t="b">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>65</v>
@@ -2303,7 +2330,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>65</v>
@@ -2311,7 +2338,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>65</v>
@@ -2319,161 +2346,153 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>65</v>
+        <v>169</v>
+      </c>
+      <c r="B52" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="4" t="b">
-        <v>0</v>
+      <c r="A54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>151</v>
+      <c r="A55" t="s">
+        <v>171</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>178</v>
+      </c>
+      <c r="B65" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B66" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B67" s="4" t="b">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>77</v>
+        <v>181</v>
+      </c>
+      <c r="B69" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>127</v>
       </c>
     </row>

--- a/inst/extdata/seqNdisplayR_sample_sheet_simple2.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_simple2.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{984E8B7D-C7CA-AE4E-AB64-D327ECD5C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4892B65-E313-8644-A481-401D9145D736}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{984E8B7D-C7CA-AE4E-AB64-D327ECD5C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8E8692-3009-BF44-8918-E52A03CFB94F}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="35260" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
     <sheet name="DATASET_OPTIONS" sheetId="8" r:id="rId2"/>
     <sheet name="ANNOTATIONS" sheetId="5" r:id="rId3"/>
     <sheet name="GLOBAL_OPTIONS" sheetId="7" r:id="rId4"/>
-    <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$B$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
-  <si>
-    <t>bw_dirs</t>
-  </si>
-  <si>
-    <t>bw_names</t>
-  </si>
-  <si>
-    <t>seqtypes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="171">
   <si>
     <t>strand</t>
   </si>
@@ -47,18 +37,9 @@
     <t>minus</t>
   </si>
   <si>
-    <t>subsample1</t>
-  </si>
-  <si>
-    <t>subsample2</t>
-  </si>
-  <si>
     <t>batch</t>
   </si>
   <si>
-    <t>Limitations / usage of this template:</t>
-  </si>
-  <si>
     <t>3-seq</t>
   </si>
   <si>
@@ -119,63 +100,9 @@
     <t>color</t>
   </si>
   <si>
-    <t>x Sheets:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples: </t>
-  </si>
-  <si>
-    <t>contains track information</t>
-  </si>
-  <si>
-    <t>either name this sheet Samples or keep as first</t>
-  </si>
-  <si>
-    <t>required columns:</t>
-  </si>
-  <si>
-    <t>optional columns:</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color </t>
-  </si>
-  <si>
-    <t>column needs to be present, only one bw_dir by seqtypes is allowed, can be left empty and included in bw_names</t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will assume all samples are from same batch</t>
-  </si>
-  <si>
-    <t>a identifier of sample grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>… (infinity number of subsamples are allowed, different levels are subgroupings are possible for different seqtypes and subsample groups, leave cells empty if not relevant</t>
-  </si>
-  <si>
-    <t>['plus', 'minus' or leave empty] column needs to be present, but if leave it empty, will assume strand plus, if not minus strand bw present, will assume unstranded</t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will cause track to be displayed in black. Hex code or any name representation usable as color in R is possible. Ups: Named colors wont display correctly in the Excel sheet.</t>
-  </si>
-  <si>
-    <t>every row must have a bw_name associated. Multiple rows are allowed per samples, than the bigwigs are assumed replicates from the same sample.</t>
-  </si>
-  <si>
     <t xml:space="preserve">both_strands </t>
   </si>
   <si>
-    <t xml:space="preserve">actual_strand_direction </t>
-  </si>
-  <si>
     <t xml:space="preserve">extra_space </t>
   </si>
   <si>
@@ -338,12 +265,6 @@
     <t>siRRP40_xPAP_in_batch3_minus.bw</t>
   </si>
   <si>
-    <t>#NULL or named list;ie horizontal_panels_list = list(“RNA-seq”=c(F,F), “3-seq”=c(F,T,F,F))</t>
-  </si>
-  <si>
-    <t>#NULL, single number, vector of length 2 or number of panels or a list</t>
-  </si>
-  <si>
     <t>whichSamples</t>
   </si>
   <si>
@@ -362,9 +283,6 @@
     <t>negValsSet0</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>log2transform</t>
   </si>
   <si>
@@ -596,9 +514,6 @@
     <t>0.66</t>
   </si>
   <si>
-    <t>This Excel template aims to facilitate the input of your datasets in the plotting function, it however has some limitations of structure, should your dataset have a complex sturcture not compatible with this import function, please generate the input manually</t>
-  </si>
-  <si>
     <t>annotation_name</t>
   </si>
   <si>
@@ -620,10 +535,10 @@
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/annotations/HeLa_major_isoform_hg38_gc34.bed</t>
   </si>
   <si>
-    <t>replicate (not used by seqNdisplayR at the moment)</t>
-  </si>
-  <si>
     <t>group_autoscale</t>
+  </si>
+  <si>
+    <t>reverse_strand_direction</t>
   </si>
 </sst>
 </file>
@@ -1077,73 +992,73 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1152,13 +1067,13 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1167,13 +1082,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1182,13 +1097,13 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1197,13 +1112,13 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1212,31 +1127,31 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1245,13 +1160,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1260,13 +1175,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1275,13 +1190,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1290,13 +1205,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1305,37 +1220,37 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1344,13 +1259,13 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1359,13 +1274,13 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1374,31 +1289,31 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1407,13 +1322,13 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1422,13 +1337,13 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1437,37 +1352,37 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1476,13 +1391,13 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1491,13 +1406,13 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1506,31 +1421,31 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1539,13 +1454,13 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1554,13 +1469,13 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1569,37 +1484,37 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1622,7 +1537,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1634,51 +1549,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1699,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1710,13 +1625,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1737,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1748,13 +1663,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1775,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1786,13 +1701,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1813,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1849,36 +1764,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1893,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1913,544 +1828,531 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>165</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>142</v>
+      </c>
+      <c r="B51" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B52" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>65</v>
+      <c r="B54" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B65" s="4" t="b">
         <v>1</v>
@@ -2458,7 +2360,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B66" s="4" t="b">
         <v>0</v>
@@ -2466,23 +2368,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B69" s="4">
         <v>15</v>
@@ -2490,146 +2392,13 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>